--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value189.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value189.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200512049774733</v>
+        <v>5.900485992431641</v>
       </c>
       <c r="B1">
-        <v>1.828056000660352</v>
+        <v>4.908373355865479</v>
       </c>
       <c r="C1">
-        <v>3.040906477729535</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.278338949377738</v>
+        <v>3.920625925064087</v>
       </c>
       <c r="E1">
-        <v>0.5486909902717853</v>
+        <v>2.033992290496826</v>
       </c>
     </row>
   </sheetData>
